--- a/data/trans_dic/P38B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P38B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,71%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>43,67; 52,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>50,46; 60,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>37,03; 54,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>55,97; 65,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>59,78; 69,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>49,61; 64,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>51,17; 57,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>56,36; 63,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>45,36; 56,44</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,21%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>73,15; 79,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>65,2; 72,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>58,57; 70,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>82,12; 87,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>78,3; 84,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>66,09; 78,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>78,04; 82,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>72,6; 77,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>64,66; 73,12</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,93%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>82,73; 87,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>78,68; 84,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>72,44; 80,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>87,63; 92,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>82,4; 87,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>80,55; 86,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>85,94; 89,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>81,61; 85,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>77,25; 82,05</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,43%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>87,83; 92,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>85,03; 90,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>60,61; 88,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>88,11; 92,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>88,13; 92,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>89,88; 93,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>88,77; 92,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>87,44; 91,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>75,37; 90,12</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,52%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>90,33; 95,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>89,46; 94,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>89,72; 94,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>92,61; 96,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>90,69; 95,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>92,99; 96,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>92,53; 95,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>91,31; 94,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>91,95; 94,79</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>92,61; 96,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>96,32; 98,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>95,56; 97,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>94,49; 97,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>96,42; 98,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>95,93; 98,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>94,45; 96,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>97,01; 98,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>96,17; 97,78</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,25%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,77; 83,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,48; 83,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>75,14; 81,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,55; 88,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,23; 88,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>85,02; 88,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>84,18; 85,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,79; 85,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>81,11; 84,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,01%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>53,78%</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,03; 54,0</t>
+          <t>40,77; 59,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,61; 64,19</t>
+          <t>52,42; 67,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,36; 56,44</t>
+          <t>47,75; 60,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,56%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>66,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>69,21%</t>
+          <t>66,2%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,57; 70,84</t>
+          <t>59,97; 71,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,09; 78,01</t>
+          <t>43,46; 78,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,14 +835,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,66; 73,12</t>
+          <t>50,89; 72,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>84,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>80,82%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,44; 80,04</t>
+          <t>73,59; 81,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>80,55; 86,35</t>
+          <t>81,41; 86,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,14 +945,14 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,25; 82,05</t>
+          <t>78,23; 82,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,15%</t>
+          <t>63,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>76,18%</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,61; 88,07</t>
+          <t>27,21; 88,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,88; 93,31</t>
+          <t>90,48; 93,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>75,37; 90,12</t>
+          <t>47,32; 90,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>93,76%</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,72; 94,22</t>
+          <t>90,16; 94,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,99; 96,19</t>
+          <t>93,24; 96,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,95; 94,79</t>
+          <t>92,23; 95,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>97,32%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,61; 96,85</t>
+          <t>92,87; 98,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96,32; 98,77</t>
+          <t>95,52; 99,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,56; 97,94</t>
+          <t>93,67; 97,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,49; 97,5</t>
+          <t>92,51; 97,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,42; 98,88</t>
+          <t>95,97; 98,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,09</t>
+          <t>97,07; 99,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>94,45; 96,84</t>
+          <t>93,89; 97,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,01; 98,6</t>
+          <t>96,55; 98,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,17; 97,78</t>
+          <t>96,13; 98,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>97,33%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>88,69; 96,29</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>96,01; 99,31</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>97,24; 99,53</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>94,87; 98,56</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>95,61; 99,36</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94,81; 97,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>93,79; 97,16</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96,6; 99,07</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96,2; 98,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82,13%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81,88%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75,22%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>87,79%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>87,41%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>86,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>85,02%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>84,71%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>81,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>80,77; 83,46</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>80,48; 83,15</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>75,14; 81,41</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59,33; 81,52</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>86,55; 88,81</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>86,23; 88,45</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>85,02; 88,22</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>80,26; 88,96</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>84,18; 85,79</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>83,79; 85,44</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>81,11; 84,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>72,12; 84,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P38B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,67; 52,98</t>
+          <t>43,79; 53,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,46; 60,62</t>
+          <t>50,74; 60,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,77; 59,02</t>
+          <t>40,11; 57,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,97; 65,38</t>
+          <t>55,6; 65,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,78; 69,03</t>
+          <t>59,14; 69,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,42; 67,07</t>
+          <t>52,87; 66,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,17; 57,88</t>
+          <t>51,29; 57,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,36; 63,6</t>
+          <t>56,68; 63,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,75; 60,05</t>
+          <t>47,97; 59,69</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,15; 79,44</t>
+          <t>73,16; 79,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,2; 72,96</t>
+          <t>65,4; 72,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,97; 71,96</t>
+          <t>59,62; 71,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,12; 87,68</t>
+          <t>81,72; 87,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,3; 84,6</t>
+          <t>78,28; 84,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,46; 78,61</t>
+          <t>40,0; 78,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,04; 82,74</t>
+          <t>78,13; 82,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,6; 77,64</t>
+          <t>72,51; 77,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,89; 72,93</t>
+          <t>50,36; 72,88</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,73; 87,85</t>
+          <t>82,71; 87,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,68; 84,73</t>
+          <t>78,48; 84,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,59; 81,06</t>
+          <t>72,71; 80,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,63; 92,31</t>
+          <t>87,89; 92,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,4; 87,99</t>
+          <t>82,61; 88,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,41; 86,97</t>
+          <t>81,48; 86,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,94; 89,38</t>
+          <t>86,04; 89,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,61; 85,64</t>
+          <t>81,58; 85,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,23; 82,89</t>
+          <t>78,56; 83,16</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,83; 92,52</t>
+          <t>87,57; 92,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,03; 90,39</t>
+          <t>84,97; 90,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,21; 88,3</t>
+          <t>27,67; 88,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,11; 92,91</t>
+          <t>88,0; 93,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,13; 92,89</t>
+          <t>87,99; 92,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,48; 93,89</t>
+          <t>90,24; 93,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,77; 92,17</t>
+          <t>88,7; 92,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,44; 91,07</t>
+          <t>87,28; 90,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,32; 90,68</t>
+          <t>45,57; 90,55</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,33; 95,36</t>
+          <t>90,48; 95,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,46; 94,57</t>
+          <t>89,56; 94,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,16; 94,4</t>
+          <t>90,14; 94,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,61; 96,97</t>
+          <t>92,5; 96,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>90,69; 95,78</t>
+          <t>91,11; 95,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,24; 96,33</t>
+          <t>92,94; 96,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,53; 95,78</t>
+          <t>92,59; 95,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>91,31; 94,52</t>
+          <t>91,07; 94,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,23; 95,0</t>
+          <t>92,26; 95,11</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,87; 98,32</t>
+          <t>93,73; 98,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,52; 99,0</t>
+          <t>95,49; 99,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,67; 97,18</t>
+          <t>93,65; 97,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,51; 97,18</t>
+          <t>92,65; 97,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,97; 98,98</t>
+          <t>95,83; 98,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,07; 99,6</t>
+          <t>96,98; 99,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,89; 97,29</t>
+          <t>93,92; 97,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96,55; 98,68</t>
+          <t>96,57; 98,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,13; 98,63</t>
+          <t>96,1; 98,64</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,69; 96,29</t>
+          <t>89,22; 96,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>96,01; 99,31</t>
+          <t>96,03; 99,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,53</t>
+          <t>97,44; 99,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94,87; 98,56</t>
+          <t>95,12; 98,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,61; 99,36</t>
+          <t>95,76; 99,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,81; 97,61</t>
+          <t>94,54; 97,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,79; 97,16</t>
+          <t>93,99; 97,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>96,6; 99,07</t>
+          <t>96,64; 99,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>96,2; 98,17</t>
+          <t>96,18; 98,16</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>80,77; 83,46</t>
+          <t>80,74; 83,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>80,48; 83,15</t>
+          <t>80,45; 83,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,33; 81,52</t>
+          <t>57,8; 81,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,55; 88,81</t>
+          <t>86,58; 88,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,23; 88,45</t>
+          <t>86,37; 88,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,26; 88,96</t>
+          <t>81,36; 88,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>84,18; 85,79</t>
+          <t>84,15; 85,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>83,79; 85,44</t>
+          <t>83,85; 85,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>72,12; 84,6</t>
+          <t>71,59; 84,8</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de colesterol por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>218263</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>226212</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>196476</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>258532</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>254279</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>186502</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>476795</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>480491</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>382977</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>197232; 238994</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>205993; 246871</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>160454; 231495</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>236493; 277157</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>232890; 272063</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>165021; 208755</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>449152; 507115</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>453343; 509805</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>341615; 425046</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>520067</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>408095</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>278585</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>517092</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>460044</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>340451</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1037159</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>868138</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>619036</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>498581; 541953</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>385508; 428626</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>252539; 301273</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>496091; 532671</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>441135; 475778</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>204596; 401392</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1006755; 1065941</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>836049; 896777</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>470862; 681433</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>579315</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>540284</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>413864</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>640254</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>559868</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>457912</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1219570</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1100152</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>871777</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>561632; 597038</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>519065; 560475</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>389959; 431445</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>623833; 656732</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>541006; 577640</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>441887; 470782</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1194938; 1245118</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1073828; 1124547</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>847369; 896964</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>554897</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>561703</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>562546</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>556019</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>588745</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>656379</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1110916</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1150447</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1218924</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>537309; 568814</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>542856; 577258</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>245613; 785259</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>539606; 570394</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>571106; 601956</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>642838; 668544</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1088110; 1132247</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1124141; 1171910</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>729244; 1448902</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>394894</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>440785</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>518999</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>423651</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>464557</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>520010</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>818547</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>905342</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1039010</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>383641; 404287</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>428027; 452365</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>504974; 528869</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>411354; 431237</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>451602; 474284</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>509248; 526921</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>804333; 831388</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>886675; 920881</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1022380; 1053954</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>297183</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>326268</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>351548</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>337298</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>369609</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>597536</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>634481</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>695877</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>949083</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>288465; 302661</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>319240; 331165</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>344073; 357263</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>327976; 344037</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>361997; 373803</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>589484; 604294</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>621518; 643825</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>687694; 702900</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>937170; 961963</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1305</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>230280</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>251199</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>279227</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>373431</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>391604</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>409014</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>603711</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>642801</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>688241</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>219998; 236881</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>245985; 254450</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>275517; 281422</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>365591; 378891</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>382043; 396509</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>401184; 413716</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>593032; 613611</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>633136; 649050</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>680126; 694098</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2632</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2872</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5472</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5520</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7739</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2794901</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2754546</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2601246</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3106278</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3088706</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3167804</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5901178</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>5843250</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5769048</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2747559; 2838568</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2706648; 2797584</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1998847; 2821310</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3063703; 3145389</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3052190; 3128441</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2976473; 3253470</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>5841085; 5960478</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5783798; 5906573</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5094912; 6034595</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>